--- a/Backend/DM_Resource_Plot.xlsx
+++ b/Backend/DM_Resource_Plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvesh\Desktop\Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\temp\navigated_learning\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B81818-175A-45FD-81F3-F27A03C0C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D01550-4419-4DAA-8D2E-200666C33697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>Prime Numbers and GCD</t>
   </si>
   <si>
-    <t>Properties of GCD and Bezout's Theorem</t>
-  </si>
-  <si>
     <t>Linear Congruence Equations and Chinese Remainder Theorem</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>More Applications of Groups</t>
   </si>
   <si>
-    <t>Discrete Logarithm and Cryptographic Applications</t>
-  </si>
-  <si>
     <t>Rings, Fields and Polynomials</t>
   </si>
   <si>
@@ -238,219 +232,6 @@
     <t>Applications of Finite Fields</t>
   </si>
   <si>
-    <t>https://nptel.ac.in/courses/106108227</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108228</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108229</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108230</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108231</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108232</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108233</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108234</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108235</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108236</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108237</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108238</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108239</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108240</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108241</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108242</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108243</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108244</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108245</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108246</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108247</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108248</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108249</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108250</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108251</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108252</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108253</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108254</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108255</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108256</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108257</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108258</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108259</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108260</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108261</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108262</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108263</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108264</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108265</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108266</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108267</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108268</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108269</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108270</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108271</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108272</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108273</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108274</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108275</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108276</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108277</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108278</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108279</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108280</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108281</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108282</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108283</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108284</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108285</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108286</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108287</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108288</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108289</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108290</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108291</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108292</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108293</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108294</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108295</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108296</t>
-  </si>
-  <si>
-    <t>https://nptel.ac.in/courses/106108297</t>
-  </si>
-  <si>
     <t>video_url</t>
   </si>
   <si>
@@ -461,6 +242,225 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sPQ3ptUMltA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=55apA1-8xOM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZqFVJiXqgYI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lqcnhFKWoNk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3u8lW40rZDA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cziNHYIGPmk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sti1mLMVsps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4nXfN4-rqdU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z1ikaJjZjWI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D817ZE_NOjg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d-K-pDALIL0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ic5PHlKXC-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9n18w4SpG8g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oVDS5o24Itw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6jBu-ls3ZwU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D8mee915ejI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bxEsA9vOAvo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G5J84UvfNNQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hWeN4pGmLq4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tCe5c5TUsSo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x-7JHErUgfA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nPy4YJT_1GQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fKPll1NigOE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RVACT19HC14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QxgxePCW8wM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hyNkcSEI2f8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=px4Npzybm6g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2jKuc_4ukH4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E0QOfw3HihQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hkTL1LlFuOs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cgv3buDjkKQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=781JhFTQpyQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nSgrzxzimVM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xdsnR1BY7SU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VBiuvWJ8_xc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RTfhmK8SVOs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bXVnIIEmSVo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XCJxclU_oR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nQaQ6NSB-1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zz11Ra2hZLA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XxuBLpZqvR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rBLuvLDutdY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mqZsV86mEIU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HF4HZvLeWxc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=33Axwm0t63Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l1Dwe8YL6Ws</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KBIpWbmwz4U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MN0RdGNMsFQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ck5MZu7Tv20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cDv1Afkvt00</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=utBfKsYUwe8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0nEIFcSpbBk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j3lrgY_sH44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F1EfXa_qWm4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZMDTndFMgks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QzOx5kK5lAs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SX2bRKsmIBc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gj23DQIoB58</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k2jW-zbVMIo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GUvvY-bPZWQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ABFLX5iYZ6c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kvT90WH__5I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=woAgep6ESTk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M_GupgLfTP4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q6y93cCpms4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gs66AqWvNNc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mc_6yftEwzg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pfHMtIzqlJ0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tagv4h8eqac</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IAyGh6xXvMg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=psj6gKOv2Rg</t>
+  </si>
+  <si>
+    <t>Properties of GCD and BÃ©zout's Theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Logarithm and Cryptographic Applications </t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -549,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,33 +860,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -890,11 +903,11 @@
       <c r="D2" s="4">
         <v>0.374236325945285</v>
       </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -907,11 +920,11 @@
       <c r="D3" s="4">
         <v>0.36064781398748902</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -924,11 +937,11 @@
       <c r="D4" s="4">
         <v>0.36027003864358897</v>
       </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -941,11 +954,11 @@
       <c r="D5" s="4">
         <v>0.35537982272620799</v>
       </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -958,11 +971,11 @@
       <c r="D6" s="4">
         <v>0.34901057758966603</v>
       </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -975,11 +988,11 @@
       <c r="D7" s="4">
         <v>0.352946485797418</v>
       </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -992,11 +1005,11 @@
       <c r="D8" s="4">
         <v>0.39250830355809002</v>
       </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1009,11 +1022,11 @@
       <c r="D9" s="4">
         <v>0.39379903495197099</v>
       </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1026,11 +1039,11 @@
       <c r="D10" s="4">
         <v>0.37929262207804898</v>
       </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1043,11 +1056,11 @@
       <c r="D11" s="4">
         <v>0.39445868676413398</v>
       </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1060,11 +1073,11 @@
       <c r="D12" s="4">
         <v>0.38784278164355401</v>
       </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1077,11 +1090,11 @@
       <c r="D13" s="4">
         <v>0.38161553364719503</v>
       </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1094,11 +1107,11 @@
       <c r="D14" s="4">
         <v>0.35356671668940498</v>
       </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1111,11 +1124,11 @@
       <c r="D15" s="4">
         <v>0.40358245090216599</v>
       </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1128,11 +1141,11 @@
       <c r="D16" s="4">
         <v>0.40833158746738601</v>
       </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1145,11 +1158,11 @@
       <c r="D17" s="4">
         <v>0.389978649143982</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1162,11 +1175,11 @@
       <c r="D18" s="4">
         <v>0.373907304672423</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1179,11 +1192,11 @@
       <c r="D19" s="4">
         <v>0.40219020171470599</v>
       </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1196,11 +1209,11 @@
       <c r="D20" s="4">
         <v>0.40453764094204597</v>
       </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1213,11 +1226,11 @@
       <c r="D21" s="4">
         <v>0.39765552114522801</v>
       </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1230,11 +1243,11 @@
       <c r="D22" s="4">
         <v>0.39185963969209803</v>
       </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1247,11 +1260,11 @@
       <c r="D23" s="4">
         <v>0.40554285964766301</v>
       </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1264,11 +1277,11 @@
       <c r="D24" s="4">
         <v>0.40275136448486998</v>
       </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1281,11 +1294,11 @@
       <c r="D25" s="4">
         <v>0.39416682172370698</v>
       </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1298,11 +1311,11 @@
       <c r="D26" s="4">
         <v>0.41663646056600001</v>
       </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1315,11 +1328,11 @@
       <c r="D27" s="4">
         <v>0.39401157882917398</v>
       </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1332,11 +1345,11 @@
       <c r="D28" s="4">
         <v>0.39129714490086098</v>
       </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1349,11 +1362,11 @@
       <c r="D29" s="4">
         <v>0.40939057203093399</v>
       </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1366,11 +1379,11 @@
       <c r="D30" s="4">
         <v>0.39555954966935603</v>
       </c>
-      <c r="E30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1383,11 +1396,11 @@
       <c r="D31" s="4">
         <v>0.37169814522644601</v>
       </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1400,11 +1413,11 @@
       <c r="D32" s="4">
         <v>0.40082811258726803</v>
       </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1417,11 +1430,11 @@
       <c r="D33" s="4">
         <v>0.375019915439669</v>
       </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1434,11 +1447,11 @@
       <c r="D34" s="4">
         <v>0.40740180393243802</v>
       </c>
-      <c r="E34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1451,11 +1464,11 @@
       <c r="D35" s="4">
         <v>0.40761363969339598</v>
       </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1468,11 +1481,11 @@
       <c r="D36" s="4">
         <v>0.37074651332810898</v>
       </c>
-      <c r="E36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1485,11 +1498,11 @@
       <c r="D37" s="4">
         <v>0.37074651332810898</v>
       </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E37" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1502,11 +1515,11 @@
       <c r="D38" s="4">
         <v>0.40731483167646099</v>
       </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E38" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1519,11 +1532,11 @@
       <c r="D39" s="4">
         <v>0.400012867433723</v>
       </c>
-      <c r="E39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E39" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1536,11 +1549,11 @@
       <c r="D40" s="4">
         <v>0.40840430983749898</v>
       </c>
-      <c r="E40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1553,11 +1566,11 @@
       <c r="D41" s="4">
         <v>0.42328233642332003</v>
       </c>
-      <c r="E41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E41" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1570,11 +1583,11 @@
       <c r="D42" s="4">
         <v>0.373548697935356</v>
       </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E42" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1587,11 +1600,11 @@
       <c r="D43" s="4">
         <v>0.39746987298820002</v>
       </c>
-      <c r="E43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E43" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1604,11 +1617,11 @@
       <c r="D44" s="4">
         <v>0.41602711472722398</v>
       </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E44" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1621,11 +1634,11 @@
       <c r="D45" s="4">
         <v>0.41913858058126402</v>
       </c>
-      <c r="E45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E45" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1638,11 +1651,11 @@
       <c r="D46" s="4">
         <v>0.44026802541259702</v>
       </c>
-      <c r="E46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E46" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1655,11 +1668,11 @@
       <c r="D47" s="4">
         <v>0.38959696706085301</v>
       </c>
-      <c r="E47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E47" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1672,11 +1685,11 @@
       <c r="D48" s="4">
         <v>0.40538509020070002</v>
       </c>
-      <c r="E48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E48" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1689,11 +1702,11 @@
       <c r="D49" s="4">
         <v>0.39655013769549502</v>
       </c>
-      <c r="E49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E49" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1706,11 +1719,11 @@
       <c r="D50" s="4">
         <v>0.39655013769549502</v>
       </c>
-      <c r="E50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E50" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1723,11 +1736,11 @@
       <c r="D51" s="4">
         <v>0.408687577549458</v>
       </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E51" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1740,11 +1753,11 @@
       <c r="D52" s="4">
         <v>0.38475316823001598</v>
       </c>
-      <c r="E52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E52" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1757,11 +1770,11 @@
       <c r="D53" s="4">
         <v>0.40725989526769002</v>
       </c>
-      <c r="E53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1774,11 +1787,11 @@
       <c r="D54" s="4">
         <v>0.40534311583440802</v>
       </c>
-      <c r="E54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E54" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1791,11 +1804,11 @@
       <c r="D55" s="4">
         <v>0.38082487418815397</v>
       </c>
-      <c r="E55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E55" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1808,11 +1821,11 @@
       <c r="D56" s="4">
         <v>0.419347897095601</v>
       </c>
-      <c r="E56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E56" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1825,16 +1838,16 @@
       <c r="D57" s="4">
         <v>0.39225920189700297</v>
       </c>
-      <c r="E57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4">
         <v>0.39810960368520798</v>
@@ -1842,16 +1855,16 @@
       <c r="D58" s="4">
         <v>0.41365900299927</v>
       </c>
-      <c r="E58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E58" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="4">
         <v>0.41655425087119702</v>
@@ -1859,16 +1872,16 @@
       <c r="D59" s="4">
         <v>0.42542056320941801</v>
       </c>
-      <c r="E59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E59" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="4">
         <v>0.42190043596309401</v>
@@ -1876,16 +1889,16 @@
       <c r="D60" s="4">
         <v>0.39195091402694399</v>
       </c>
-      <c r="E60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E60" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4">
         <v>0.39522686954133002</v>
@@ -1893,16 +1906,16 @@
       <c r="D61" s="4">
         <v>0.387003399142892</v>
       </c>
-      <c r="E61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E61" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="4">
         <v>0.40285508339425502</v>
@@ -1910,16 +1923,16 @@
       <c r="D62" s="4">
         <v>0.40346409936592098</v>
       </c>
-      <c r="E62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E62" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="4">
         <v>0.43132023473688702</v>
@@ -1927,16 +1940,16 @@
       <c r="D63" s="4">
         <v>0.42605020384964698</v>
       </c>
-      <c r="E63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="4">
         <v>0.394352562480285</v>
@@ -1944,16 +1957,16 @@
       <c r="D64" s="4">
         <v>0.41656111589676997</v>
       </c>
-      <c r="E64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E64" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4">
         <v>0.37484342477056898</v>
@@ -1961,16 +1974,16 @@
       <c r="D65" s="4">
         <v>0.40047037012354603</v>
       </c>
-      <c r="E65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E65" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4">
         <v>0.41821841524664399</v>
@@ -1978,16 +1991,16 @@
       <c r="D66" s="4">
         <v>0.43382776723560701</v>
       </c>
-      <c r="E66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E66" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4">
         <v>0.41309627088468298</v>
@@ -1995,16 +2008,16 @@
       <c r="D67" s="4">
         <v>0.40492934828665</v>
       </c>
-      <c r="E67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E67" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4">
         <v>0.40733690184691301</v>
@@ -2012,16 +2025,16 @@
       <c r="D68" s="4">
         <v>0.41451878831450101</v>
       </c>
-      <c r="E68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E68" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" s="4">
         <v>0.42211850891601199</v>
@@ -2029,16 +2042,16 @@
       <c r="D69" s="4">
         <v>0.40320317496146901</v>
       </c>
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E69" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4">
         <v>0.40992706898315001</v>
@@ -2046,16 +2059,16 @@
       <c r="D70" s="4">
         <v>0.40744509103809201</v>
       </c>
-      <c r="E70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E70" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="4">
         <v>0.40668102330220102</v>
@@ -2063,16 +2076,16 @@
       <c r="D71" s="4">
         <v>0.40671629802458198</v>
       </c>
-      <c r="E71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E71" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4">
         <v>0.392590703456834</v>
@@ -2080,9 +2093,45 @@
       <c r="D72" s="4">
         <v>0.38736021478219201</v>
       </c>
-      <c r="E72" t="s">
-        <v>142</v>
-      </c>
+      <c r="E72" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Backend/DM_Resource_Plot.xlsx
+++ b/Backend/DM_Resource_Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\temp\navigated_learning\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D01550-4419-4DAA-8D2E-200666C33697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E580B-3707-4435-9113-751B33E6C38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,7 +863,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backend/DM_Resource_Plot.xlsx
+++ b/Backend/DM_Resource_Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\temp\navigated_learning\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E580B-3707-4435-9113-751B33E6C38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14B516C-0803-4D53-8A77-F3E6BD0D2047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>0.46051652037128199</v>
+        <v>0.38754300000000003</v>
       </c>
       <c r="D2" s="4">
-        <v>0.374236325945285</v>
+        <v>0.34303099999999997</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>74</v>
@@ -915,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.42471282203607003</v>
+        <v>0.38283699999999998</v>
       </c>
       <c r="D3" s="4">
-        <v>0.36064781398748902</v>
+        <v>0.366068</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>75</v>
@@ -932,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>0.44590730145389701</v>
+        <v>0.45218999999999998</v>
       </c>
       <c r="D4" s="4">
-        <v>0.36027003864358897</v>
+        <v>0.35670499999999999</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>76</v>
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>0.40051274416932198</v>
+        <v>0.36516599999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>0.35537982272620799</v>
+        <v>0.35239700000000002</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>77</v>
@@ -966,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>0.445587786583444</v>
+        <v>0.374861</v>
       </c>
       <c r="D6" s="4">
-        <v>0.34901057758966603</v>
+        <v>0.36843100000000001</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>78</v>
@@ -983,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>0.45461922476382999</v>
+        <v>0.45218999999999998</v>
       </c>
       <c r="D7" s="4">
-        <v>0.352946485797418</v>
+        <v>0.35670499999999999</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>79</v>
@@ -1000,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>0.39349120579472302</v>
+        <v>0.37763600000000003</v>
       </c>
       <c r="D8" s="4">
-        <v>0.39250830355809002</v>
+        <v>0.36385299999999998</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>80</v>
@@ -1017,10 +1017,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>0.44942255567278599</v>
+        <v>0.41905399999999998</v>
       </c>
       <c r="D9" s="4">
-        <v>0.39379903495197099</v>
+        <v>0.35573199999999999</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>81</v>
@@ -1034,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>0.41325038536418002</v>
+        <v>0.42908099999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>0.37929262207804898</v>
+        <v>0.34904499999999999</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>82</v>
@@ -1051,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>0.43052052323130902</v>
+        <v>0.378357</v>
       </c>
       <c r="D11" s="4">
-        <v>0.39445868676413398</v>
+        <v>0.36718400000000001</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>83</v>
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>0.39925717008370998</v>
+        <v>0.374861</v>
       </c>
       <c r="D12" s="4">
-        <v>0.38784278164355401</v>
+        <v>0.36843100000000001</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>84</v>
@@ -1085,10 +1085,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>0.388291570284719</v>
+        <v>0.37050899999999998</v>
       </c>
       <c r="D13" s="4">
-        <v>0.38161553364719503</v>
+        <v>0.36749500000000002</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>85</v>
@@ -1102,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>0.46166211937145701</v>
+        <v>0.374861</v>
       </c>
       <c r="D14" s="4">
-        <v>0.35356671668940498</v>
+        <v>0.36843100000000001</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>86</v>
@@ -1119,10 +1119,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <v>0.402411428485559</v>
+        <v>0.36766900000000002</v>
       </c>
       <c r="D15" s="4">
-        <v>0.40358245090216599</v>
+        <v>0.356798</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>87</v>
@@ -1136,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <v>0.45431983107364599</v>
+        <v>0.393627</v>
       </c>
       <c r="D16" s="4">
-        <v>0.40833158746738601</v>
+        <v>0.36420599999999997</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>88</v>
@@ -1153,10 +1153,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>0.42100523265995599</v>
+        <v>0.41318300000000002</v>
       </c>
       <c r="D17" s="4">
-        <v>0.389978649143982</v>
+        <v>0.36485099999999998</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>89</v>
@@ -1170,10 +1170,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>0.434658628319263</v>
+        <v>0.41318300000000002</v>
       </c>
       <c r="D18" s="4">
-        <v>0.373907304672423</v>
+        <v>0.36485099999999998</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>90</v>
@@ -1187,10 +1187,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>0.42349936237899899</v>
+        <v>0.40486899999999998</v>
       </c>
       <c r="D19" s="4">
-        <v>0.40219020171470599</v>
+        <v>0.37403999999999998</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>91</v>
@@ -1204,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="4">
-        <v>0.39557387863975801</v>
+        <v>0.34467199999999998</v>
       </c>
       <c r="D20" s="4">
-        <v>0.40453764094204597</v>
+        <v>0.368425</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>92</v>
@@ -1221,10 +1221,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>0.37278665788078502</v>
+        <v>0.409721</v>
       </c>
       <c r="D21" s="4">
-        <v>0.39765552114522801</v>
+        <v>0.36716799999999999</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>93</v>
@@ -1238,10 +1238,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="4">
-        <v>0.42586175220033301</v>
+        <v>0.40204600000000001</v>
       </c>
       <c r="D22" s="4">
-        <v>0.39185963969209803</v>
+        <v>0.35008899999999998</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>94</v>
@@ -1255,10 +1255,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="4">
-        <v>0.453850361362233</v>
+        <v>0.40204600000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>0.40554285964766301</v>
+        <v>0.35008899999999998</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>95</v>
@@ -1272,10 +1272,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="4">
-        <v>0.45709517712536601</v>
+        <v>0.395986</v>
       </c>
       <c r="D24" s="4">
-        <v>0.40275136448486998</v>
+        <v>0.37168499999999999</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>96</v>
@@ -1289,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>0.44706128679927798</v>
+        <v>0.402613</v>
       </c>
       <c r="D25" s="4">
-        <v>0.39416682172370698</v>
+        <v>0.35972500000000002</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>97</v>
@@ -1306,10 +1306,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="4">
-        <v>0.45749700264431298</v>
+        <v>0.40204600000000001</v>
       </c>
       <c r="D26" s="4">
-        <v>0.41663646056600001</v>
+        <v>0.35008899999999998</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>98</v>
@@ -1323,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>0.35998782530315698</v>
+        <v>0.40443099999999998</v>
       </c>
       <c r="D27" s="4">
-        <v>0.39401157882917398</v>
+        <v>0.35975499999999999</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>99</v>
@@ -1340,10 +1340,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <v>0.406239336747795</v>
+        <v>0.39245400000000003</v>
       </c>
       <c r="D28" s="4">
-        <v>0.39129714490086098</v>
+        <v>0.36410100000000001</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>100</v>
@@ -1357,10 +1357,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <v>0.41771362688255498</v>
+        <v>0.38535000000000003</v>
       </c>
       <c r="D29" s="4">
-        <v>0.40939057203093399</v>
+        <v>0.37723000000000001</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>101</v>
@@ -1374,10 +1374,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="4">
-        <v>0.43525912421211499</v>
+        <v>0.38428899999999999</v>
       </c>
       <c r="D30" s="4">
-        <v>0.39555954966935603</v>
+        <v>0.38971600000000001</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>102</v>
@@ -1391,10 +1391,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="4">
-        <v>0.422237687925684</v>
+        <v>0.36146800000000001</v>
       </c>
       <c r="D31" s="4">
-        <v>0.37169814522644601</v>
+        <v>0.36127199999999998</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>103</v>
@@ -1408,10 +1408,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="4">
-        <v>0.448920621122885</v>
+        <v>0.35793700000000001</v>
       </c>
       <c r="D32" s="4">
-        <v>0.40082811258726803</v>
+        <v>0.35308299999999998</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>104</v>
@@ -1425,10 +1425,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="4">
-        <v>0.388887645088839</v>
+        <v>0.37759999999999999</v>
       </c>
       <c r="D33" s="4">
-        <v>0.375019915439669</v>
+        <v>0.35746800000000001</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>105</v>
@@ -1442,10 +1442,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="4">
-        <v>0.40898945650775198</v>
+        <v>0.38653500000000002</v>
       </c>
       <c r="D34" s="4">
-        <v>0.40740180393243802</v>
+        <v>0.38455099999999998</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>106</v>
@@ -1459,10 +1459,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="4">
-        <v>0.39977955613771798</v>
+        <v>0.37646499999999999</v>
       </c>
       <c r="D35" s="4">
-        <v>0.40761363969339598</v>
+        <v>0.40755799999999998</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>107</v>
@@ -1476,10 +1476,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="4">
-        <v>0.35932042118651403</v>
+        <v>0.35592299999999999</v>
       </c>
       <c r="D36" s="4">
-        <v>0.37074651332810898</v>
+        <v>0.36357699999999998</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>108</v>
@@ -1493,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="4">
-        <v>0.35932042118651403</v>
+        <v>0.35592299999999999</v>
       </c>
       <c r="D37" s="4">
-        <v>0.37074651332810898</v>
+        <v>0.36357699999999998</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>109</v>
@@ -1510,10 +1510,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="4">
-        <v>0.40376681546330301</v>
+        <v>0.39409499999999997</v>
       </c>
       <c r="D38" s="4">
-        <v>0.40731483167646099</v>
+        <v>0.368784</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>110</v>
@@ -1527,10 +1527,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="4">
-        <v>0.372316430517457</v>
+        <v>0.383936</v>
       </c>
       <c r="D39" s="4">
-        <v>0.400012867433723</v>
+        <v>0.37864399999999998</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>111</v>
@@ -1544,10 +1544,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="4">
-        <v>0.40315913809121101</v>
+        <v>0.37646499999999999</v>
       </c>
       <c r="D40" s="4">
-        <v>0.40840430983749898</v>
+        <v>0.40755799999999998</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>112</v>
@@ -1561,10 +1561,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="4">
-        <v>0.41290254305618301</v>
+        <v>0.37646499999999999</v>
       </c>
       <c r="D41" s="4">
-        <v>0.42328233642332003</v>
+        <v>0.40755799999999998</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>113</v>
@@ -1578,10 +1578,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="4">
-        <v>0.39766046771339503</v>
+        <v>0.36507400000000001</v>
       </c>
       <c r="D42" s="4">
-        <v>0.373548697935356</v>
+        <v>0.35083599999999998</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>114</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="4">
-        <v>0.36213585269662901</v>
+        <v>0.35810500000000001</v>
       </c>
       <c r="D43" s="4">
-        <v>0.39746987298820002</v>
+        <v>0.36219699999999999</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>115</v>
@@ -1612,10 +1612,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="4">
-        <v>0.41553329995684701</v>
+        <v>0.37646499999999999</v>
       </c>
       <c r="D44" s="4">
-        <v>0.41602711472722398</v>
+        <v>0.40755799999999998</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>116</v>
@@ -1629,10 +1629,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="4">
-        <v>0.42956038324415902</v>
+        <v>0.36527900000000002</v>
       </c>
       <c r="D45" s="4">
-        <v>0.41913858058126402</v>
+        <v>0.37303599999999998</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>117</v>
@@ -1646,10 +1646,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="4">
-        <v>0.45903736814132101</v>
+        <v>0.39508700000000002</v>
       </c>
       <c r="D46" s="4">
-        <v>0.44026802541259702</v>
+        <v>0.37263800000000002</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>118</v>
@@ -1663,10 +1663,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="4">
-        <v>0.43782354602486201</v>
+        <v>0.37514199999999998</v>
       </c>
       <c r="D47" s="4">
-        <v>0.38959696706085301</v>
+        <v>0.36924200000000001</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>119</v>
@@ -1680,10 +1680,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="4">
-        <v>0.39425475286610201</v>
+        <v>0.398733</v>
       </c>
       <c r="D48" s="4">
-        <v>0.40538509020070002</v>
+        <v>0.38637700000000003</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>120</v>
@@ -1697,10 +1697,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="4">
-        <v>0.41924075044821202</v>
+        <v>0.37579299999999999</v>
       </c>
       <c r="D49" s="4">
-        <v>0.39655013769549502</v>
+        <v>0.35734900000000003</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>121</v>
@@ -1714,10 +1714,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="4">
-        <v>0.41924075044821202</v>
+        <v>0.34584399999999998</v>
       </c>
       <c r="D50" s="4">
-        <v>0.39655013769549502</v>
+        <v>0.387098</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>122</v>
@@ -1731,10 +1731,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="4">
-        <v>0.40173430257089798</v>
+        <v>0.345883</v>
       </c>
       <c r="D51" s="4">
-        <v>0.408687577549458</v>
+        <v>0.36844500000000002</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>123</v>
@@ -1748,10 +1748,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="4">
-        <v>0.393990461812947</v>
+        <v>0.37262299999999998</v>
       </c>
       <c r="D52" s="4">
-        <v>0.38475316823001598</v>
+        <v>0.36730099999999999</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>124</v>
@@ -1765,10 +1765,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="4">
-        <v>0.38515232409007699</v>
+        <v>0.34827900000000001</v>
       </c>
       <c r="D53" s="4">
-        <v>0.40725989526769002</v>
+        <v>0.37104199999999998</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>125</v>
@@ -1782,10 +1782,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="4">
-        <v>0.40085452637249902</v>
+        <v>0.37318000000000001</v>
       </c>
       <c r="D54" s="4">
-        <v>0.40534311583440802</v>
+        <v>0.378081</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>126</v>
@@ -1799,10 +1799,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="4">
-        <v>0.39498081473853702</v>
+        <v>0.37050899999999998</v>
       </c>
       <c r="D55" s="4">
-        <v>0.38082487418815397</v>
+        <v>0.36749500000000002</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>127</v>
@@ -1816,10 +1816,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="4">
-        <v>0.40741858441870299</v>
+        <v>0.42404399999999998</v>
       </c>
       <c r="D56" s="4">
-        <v>0.419347897095601</v>
+        <v>0.41448400000000002</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>128</v>
@@ -1833,10 +1833,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="4">
-        <v>0.39509232463439498</v>
+        <v>0.37306</v>
       </c>
       <c r="D57" s="4">
-        <v>0.39225920189700297</v>
+        <v>0.367537</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>129</v>
@@ -1850,10 +1850,10 @@
         <v>145</v>
       </c>
       <c r="C58" s="4">
-        <v>0.39810960368520798</v>
+        <v>0.40314800000000001</v>
       </c>
       <c r="D58" s="4">
-        <v>0.41365900299927</v>
+        <v>0.35653400000000002</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>130</v>
@@ -1867,10 +1867,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="4">
-        <v>0.41655425087119702</v>
+        <v>0.37148300000000001</v>
       </c>
       <c r="D59" s="4">
-        <v>0.42542056320941801</v>
+        <v>0.36751099999999998</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>131</v>
@@ -1884,10 +1884,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="4">
-        <v>0.42190043596309401</v>
+        <v>0.40328599999999998</v>
       </c>
       <c r="D60" s="4">
-        <v>0.39195091402694399</v>
+        <v>0.38361699999999999</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>132</v>
@@ -1901,10 +1901,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="4">
-        <v>0.39522686954133002</v>
+        <v>0.37340899999999999</v>
       </c>
       <c r="D61" s="4">
-        <v>0.387003399142892</v>
+        <v>0.36795299999999997</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>133</v>
@@ -1918,10 +1918,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="4">
-        <v>0.40285508339425502</v>
+        <v>0.39690300000000001</v>
       </c>
       <c r="D62" s="4">
-        <v>0.40346409936592098</v>
+        <v>0.39454299999999998</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>134</v>
@@ -1935,10 +1935,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="4">
-        <v>0.43132023473688702</v>
+        <v>0.42404399999999998</v>
       </c>
       <c r="D63" s="4">
-        <v>0.42605020384964698</v>
+        <v>0.41448400000000002</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>135</v>
@@ -1952,10 +1952,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="4">
-        <v>0.394352562480285</v>
+        <v>0.37302099999999999</v>
       </c>
       <c r="D64" s="4">
-        <v>0.41656111589676997</v>
+        <v>0.36887199999999998</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>136</v>
@@ -1969,10 +1969,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="4">
-        <v>0.37484342477056898</v>
+        <v>0.38189699999999999</v>
       </c>
       <c r="D65" s="4">
-        <v>0.40047037012354603</v>
+        <v>0.37324000000000002</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>137</v>
@@ -1986,10 +1986,10 @@
         <v>146</v>
       </c>
       <c r="C66" s="4">
-        <v>0.41821841524664399</v>
+        <v>0.42920799999999998</v>
       </c>
       <c r="D66" s="4">
-        <v>0.43382776723560701</v>
+        <v>0.40611599999999998</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>138</v>
@@ -2003,10 +2003,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="4">
-        <v>0.41309627088468298</v>
+        <v>0.395401</v>
       </c>
       <c r="D67" s="4">
-        <v>0.40492934828665</v>
+        <v>0.39732200000000001</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>139</v>
@@ -2020,10 +2020,10 @@
         <v>65</v>
       </c>
       <c r="C68" s="4">
-        <v>0.40733690184691301</v>
+        <v>0.394067</v>
       </c>
       <c r="D68" s="4">
-        <v>0.41451878831450101</v>
+        <v>0.39729999999999999</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>140</v>
@@ -2037,10 +2037,10 @@
         <v>66</v>
       </c>
       <c r="C69" s="4">
-        <v>0.42211850891601199</v>
+        <v>0.391818</v>
       </c>
       <c r="D69" s="4">
-        <v>0.40320317496146901</v>
+        <v>0.37372</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>141</v>
@@ -2054,10 +2054,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="4">
-        <v>0.40992706898315001</v>
+        <v>0.39459499999999997</v>
       </c>
       <c r="D70" s="4">
-        <v>0.40744509103809201</v>
+        <v>0.39730900000000002</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>142</v>
@@ -2071,10 +2071,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="4">
-        <v>0.40668102330220102</v>
+        <v>0.38716299999999998</v>
       </c>
       <c r="D71" s="4">
-        <v>0.40671629802458198</v>
+        <v>0.38594699999999998</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>143</v>
@@ -2088,10 +2088,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="4">
-        <v>0.392590703456834</v>
+        <v>0.394067</v>
       </c>
       <c r="D72" s="4">
-        <v>0.38736021478219201</v>
+        <v>0.39729999999999999</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>144</v>

--- a/Backend/DM_Resource_Plot.xlsx
+++ b/Backend/DM_Resource_Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\temp\navigated_learning\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14B516C-0803-4D53-8A77-F3E6BD0D2047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D01550-4419-4DAA-8D2E-200666C33697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>0.38754300000000003</v>
+        <v>0.46051652037128199</v>
       </c>
       <c r="D2" s="4">
-        <v>0.34303099999999997</v>
+        <v>0.374236325945285</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>74</v>
@@ -915,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.38283699999999998</v>
+        <v>0.42471282203607003</v>
       </c>
       <c r="D3" s="4">
-        <v>0.366068</v>
+        <v>0.36064781398748902</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>75</v>
@@ -932,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>0.45218999999999998</v>
+        <v>0.44590730145389701</v>
       </c>
       <c r="D4" s="4">
-        <v>0.35670499999999999</v>
+        <v>0.36027003864358897</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>76</v>
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>0.36516599999999999</v>
+        <v>0.40051274416932198</v>
       </c>
       <c r="D5" s="4">
-        <v>0.35239700000000002</v>
+        <v>0.35537982272620799</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>77</v>
@@ -966,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>0.374861</v>
+        <v>0.445587786583444</v>
       </c>
       <c r="D6" s="4">
-        <v>0.36843100000000001</v>
+        <v>0.34901057758966603</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>78</v>
@@ -983,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>0.45218999999999998</v>
+        <v>0.45461922476382999</v>
       </c>
       <c r="D7" s="4">
-        <v>0.35670499999999999</v>
+        <v>0.352946485797418</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>79</v>
@@ -1000,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>0.37763600000000003</v>
+        <v>0.39349120579472302</v>
       </c>
       <c r="D8" s="4">
-        <v>0.36385299999999998</v>
+        <v>0.39250830355809002</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>80</v>
@@ -1017,10 +1017,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>0.41905399999999998</v>
+        <v>0.44942255567278599</v>
       </c>
       <c r="D9" s="4">
-        <v>0.35573199999999999</v>
+        <v>0.39379903495197099</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>81</v>
@@ -1034,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>0.42908099999999999</v>
+        <v>0.41325038536418002</v>
       </c>
       <c r="D10" s="4">
-        <v>0.34904499999999999</v>
+        <v>0.37929262207804898</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>82</v>
@@ -1051,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>0.378357</v>
+        <v>0.43052052323130902</v>
       </c>
       <c r="D11" s="4">
-        <v>0.36718400000000001</v>
+        <v>0.39445868676413398</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>83</v>
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>0.374861</v>
+        <v>0.39925717008370998</v>
       </c>
       <c r="D12" s="4">
-        <v>0.36843100000000001</v>
+        <v>0.38784278164355401</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>84</v>
@@ -1085,10 +1085,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>0.37050899999999998</v>
+        <v>0.388291570284719</v>
       </c>
       <c r="D13" s="4">
-        <v>0.36749500000000002</v>
+        <v>0.38161553364719503</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>85</v>
@@ -1102,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>0.374861</v>
+        <v>0.46166211937145701</v>
       </c>
       <c r="D14" s="4">
-        <v>0.36843100000000001</v>
+        <v>0.35356671668940498</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>86</v>
@@ -1119,10 +1119,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <v>0.36766900000000002</v>
+        <v>0.402411428485559</v>
       </c>
       <c r="D15" s="4">
-        <v>0.356798</v>
+        <v>0.40358245090216599</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>87</v>
@@ -1136,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <v>0.393627</v>
+        <v>0.45431983107364599</v>
       </c>
       <c r="D16" s="4">
-        <v>0.36420599999999997</v>
+        <v>0.40833158746738601</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>88</v>
@@ -1153,10 +1153,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>0.41318300000000002</v>
+        <v>0.42100523265995599</v>
       </c>
       <c r="D17" s="4">
-        <v>0.36485099999999998</v>
+        <v>0.389978649143982</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>89</v>
@@ -1170,10 +1170,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>0.41318300000000002</v>
+        <v>0.434658628319263</v>
       </c>
       <c r="D18" s="4">
-        <v>0.36485099999999998</v>
+        <v>0.373907304672423</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>90</v>
@@ -1187,10 +1187,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>0.40486899999999998</v>
+        <v>0.42349936237899899</v>
       </c>
       <c r="D19" s="4">
-        <v>0.37403999999999998</v>
+        <v>0.40219020171470599</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>91</v>
@@ -1204,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="4">
-        <v>0.34467199999999998</v>
+        <v>0.39557387863975801</v>
       </c>
       <c r="D20" s="4">
-        <v>0.368425</v>
+        <v>0.40453764094204597</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>92</v>
@@ -1221,10 +1221,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>0.409721</v>
+        <v>0.37278665788078502</v>
       </c>
       <c r="D21" s="4">
-        <v>0.36716799999999999</v>
+        <v>0.39765552114522801</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>93</v>
@@ -1238,10 +1238,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="4">
-        <v>0.40204600000000001</v>
+        <v>0.42586175220033301</v>
       </c>
       <c r="D22" s="4">
-        <v>0.35008899999999998</v>
+        <v>0.39185963969209803</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>94</v>
@@ -1255,10 +1255,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="4">
-        <v>0.40204600000000001</v>
+        <v>0.453850361362233</v>
       </c>
       <c r="D23" s="4">
-        <v>0.35008899999999998</v>
+        <v>0.40554285964766301</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>95</v>
@@ -1272,10 +1272,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="4">
-        <v>0.395986</v>
+        <v>0.45709517712536601</v>
       </c>
       <c r="D24" s="4">
-        <v>0.37168499999999999</v>
+        <v>0.40275136448486998</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>96</v>
@@ -1289,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>0.402613</v>
+        <v>0.44706128679927798</v>
       </c>
       <c r="D25" s="4">
-        <v>0.35972500000000002</v>
+        <v>0.39416682172370698</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>97</v>
@@ -1306,10 +1306,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="4">
-        <v>0.40204600000000001</v>
+        <v>0.45749700264431298</v>
       </c>
       <c r="D26" s="4">
-        <v>0.35008899999999998</v>
+        <v>0.41663646056600001</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>98</v>
@@ -1323,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>0.40443099999999998</v>
+        <v>0.35998782530315698</v>
       </c>
       <c r="D27" s="4">
-        <v>0.35975499999999999</v>
+        <v>0.39401157882917398</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>99</v>
@@ -1340,10 +1340,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <v>0.39245400000000003</v>
+        <v>0.406239336747795</v>
       </c>
       <c r="D28" s="4">
-        <v>0.36410100000000001</v>
+        <v>0.39129714490086098</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>100</v>
@@ -1357,10 +1357,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <v>0.38535000000000003</v>
+        <v>0.41771362688255498</v>
       </c>
       <c r="D29" s="4">
-        <v>0.37723000000000001</v>
+        <v>0.40939057203093399</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>101</v>
@@ -1374,10 +1374,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="4">
-        <v>0.38428899999999999</v>
+        <v>0.43525912421211499</v>
       </c>
       <c r="D30" s="4">
-        <v>0.38971600000000001</v>
+        <v>0.39555954966935603</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>102</v>
@@ -1391,10 +1391,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="4">
-        <v>0.36146800000000001</v>
+        <v>0.422237687925684</v>
       </c>
       <c r="D31" s="4">
-        <v>0.36127199999999998</v>
+        <v>0.37169814522644601</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>103</v>
@@ -1408,10 +1408,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="4">
-        <v>0.35793700000000001</v>
+        <v>0.448920621122885</v>
       </c>
       <c r="D32" s="4">
-        <v>0.35308299999999998</v>
+        <v>0.40082811258726803</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>104</v>
@@ -1425,10 +1425,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="4">
-        <v>0.37759999999999999</v>
+        <v>0.388887645088839</v>
       </c>
       <c r="D33" s="4">
-        <v>0.35746800000000001</v>
+        <v>0.375019915439669</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>105</v>
@@ -1442,10 +1442,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="4">
-        <v>0.38653500000000002</v>
+        <v>0.40898945650775198</v>
       </c>
       <c r="D34" s="4">
-        <v>0.38455099999999998</v>
+        <v>0.40740180393243802</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>106</v>
@@ -1459,10 +1459,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="4">
-        <v>0.37646499999999999</v>
+        <v>0.39977955613771798</v>
       </c>
       <c r="D35" s="4">
-        <v>0.40755799999999998</v>
+        <v>0.40761363969339598</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>107</v>
@@ -1476,10 +1476,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="4">
-        <v>0.35592299999999999</v>
+        <v>0.35932042118651403</v>
       </c>
       <c r="D36" s="4">
-        <v>0.36357699999999998</v>
+        <v>0.37074651332810898</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>108</v>
@@ -1493,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="4">
-        <v>0.35592299999999999</v>
+        <v>0.35932042118651403</v>
       </c>
       <c r="D37" s="4">
-        <v>0.36357699999999998</v>
+        <v>0.37074651332810898</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>109</v>
@@ -1510,10 +1510,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="4">
-        <v>0.39409499999999997</v>
+        <v>0.40376681546330301</v>
       </c>
       <c r="D38" s="4">
-        <v>0.368784</v>
+        <v>0.40731483167646099</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>110</v>
@@ -1527,10 +1527,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="4">
-        <v>0.383936</v>
+        <v>0.372316430517457</v>
       </c>
       <c r="D39" s="4">
-        <v>0.37864399999999998</v>
+        <v>0.400012867433723</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>111</v>
@@ -1544,10 +1544,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="4">
-        <v>0.37646499999999999</v>
+        <v>0.40315913809121101</v>
       </c>
       <c r="D40" s="4">
-        <v>0.40755799999999998</v>
+        <v>0.40840430983749898</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>112</v>
@@ -1561,10 +1561,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="4">
-        <v>0.37646499999999999</v>
+        <v>0.41290254305618301</v>
       </c>
       <c r="D41" s="4">
-        <v>0.40755799999999998</v>
+        <v>0.42328233642332003</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>113</v>
@@ -1578,10 +1578,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="4">
-        <v>0.36507400000000001</v>
+        <v>0.39766046771339503</v>
       </c>
       <c r="D42" s="4">
-        <v>0.35083599999999998</v>
+        <v>0.373548697935356</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>114</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="4">
-        <v>0.35810500000000001</v>
+        <v>0.36213585269662901</v>
       </c>
       <c r="D43" s="4">
-        <v>0.36219699999999999</v>
+        <v>0.39746987298820002</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>115</v>
@@ -1612,10 +1612,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="4">
-        <v>0.37646499999999999</v>
+        <v>0.41553329995684701</v>
       </c>
       <c r="D44" s="4">
-        <v>0.40755799999999998</v>
+        <v>0.41602711472722398</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>116</v>
@@ -1629,10 +1629,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="4">
-        <v>0.36527900000000002</v>
+        <v>0.42956038324415902</v>
       </c>
       <c r="D45" s="4">
-        <v>0.37303599999999998</v>
+        <v>0.41913858058126402</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>117</v>
@@ -1646,10 +1646,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="4">
-        <v>0.39508700000000002</v>
+        <v>0.45903736814132101</v>
       </c>
       <c r="D46" s="4">
-        <v>0.37263800000000002</v>
+        <v>0.44026802541259702</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>118</v>
@@ -1663,10 +1663,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="4">
-        <v>0.37514199999999998</v>
+        <v>0.43782354602486201</v>
       </c>
       <c r="D47" s="4">
-        <v>0.36924200000000001</v>
+        <v>0.38959696706085301</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>119</v>
@@ -1680,10 +1680,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="4">
-        <v>0.398733</v>
+        <v>0.39425475286610201</v>
       </c>
       <c r="D48" s="4">
-        <v>0.38637700000000003</v>
+        <v>0.40538509020070002</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>120</v>
@@ -1697,10 +1697,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="4">
-        <v>0.37579299999999999</v>
+        <v>0.41924075044821202</v>
       </c>
       <c r="D49" s="4">
-        <v>0.35734900000000003</v>
+        <v>0.39655013769549502</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>121</v>
@@ -1714,10 +1714,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="4">
-        <v>0.34584399999999998</v>
+        <v>0.41924075044821202</v>
       </c>
       <c r="D50" s="4">
-        <v>0.387098</v>
+        <v>0.39655013769549502</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>122</v>
@@ -1731,10 +1731,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="4">
-        <v>0.345883</v>
+        <v>0.40173430257089798</v>
       </c>
       <c r="D51" s="4">
-        <v>0.36844500000000002</v>
+        <v>0.408687577549458</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>123</v>
@@ -1748,10 +1748,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="4">
-        <v>0.37262299999999998</v>
+        <v>0.393990461812947</v>
       </c>
       <c r="D52" s="4">
-        <v>0.36730099999999999</v>
+        <v>0.38475316823001598</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>124</v>
@@ -1765,10 +1765,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="4">
-        <v>0.34827900000000001</v>
+        <v>0.38515232409007699</v>
       </c>
       <c r="D53" s="4">
-        <v>0.37104199999999998</v>
+        <v>0.40725989526769002</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>125</v>
@@ -1782,10 +1782,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="4">
-        <v>0.37318000000000001</v>
+        <v>0.40085452637249902</v>
       </c>
       <c r="D54" s="4">
-        <v>0.378081</v>
+        <v>0.40534311583440802</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>126</v>
@@ -1799,10 +1799,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="4">
-        <v>0.37050899999999998</v>
+        <v>0.39498081473853702</v>
       </c>
       <c r="D55" s="4">
-        <v>0.36749500000000002</v>
+        <v>0.38082487418815397</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>127</v>
@@ -1816,10 +1816,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="4">
-        <v>0.42404399999999998</v>
+        <v>0.40741858441870299</v>
       </c>
       <c r="D56" s="4">
-        <v>0.41448400000000002</v>
+        <v>0.419347897095601</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>128</v>
@@ -1833,10 +1833,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="4">
-        <v>0.37306</v>
+        <v>0.39509232463439498</v>
       </c>
       <c r="D57" s="4">
-        <v>0.367537</v>
+        <v>0.39225920189700297</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>129</v>
@@ -1850,10 +1850,10 @@
         <v>145</v>
       </c>
       <c r="C58" s="4">
-        <v>0.40314800000000001</v>
+        <v>0.39810960368520798</v>
       </c>
       <c r="D58" s="4">
-        <v>0.35653400000000002</v>
+        <v>0.41365900299927</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>130</v>
@@ -1867,10 +1867,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="4">
-        <v>0.37148300000000001</v>
+        <v>0.41655425087119702</v>
       </c>
       <c r="D59" s="4">
-        <v>0.36751099999999998</v>
+        <v>0.42542056320941801</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>131</v>
@@ -1884,10 +1884,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="4">
-        <v>0.40328599999999998</v>
+        <v>0.42190043596309401</v>
       </c>
       <c r="D60" s="4">
-        <v>0.38361699999999999</v>
+        <v>0.39195091402694399</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>132</v>
@@ -1901,10 +1901,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="4">
-        <v>0.37340899999999999</v>
+        <v>0.39522686954133002</v>
       </c>
       <c r="D61" s="4">
-        <v>0.36795299999999997</v>
+        <v>0.387003399142892</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>133</v>
@@ -1918,10 +1918,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="4">
-        <v>0.39690300000000001</v>
+        <v>0.40285508339425502</v>
       </c>
       <c r="D62" s="4">
-        <v>0.39454299999999998</v>
+        <v>0.40346409936592098</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>134</v>
@@ -1935,10 +1935,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="4">
-        <v>0.42404399999999998</v>
+        <v>0.43132023473688702</v>
       </c>
       <c r="D63" s="4">
-        <v>0.41448400000000002</v>
+        <v>0.42605020384964698</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>135</v>
@@ -1952,10 +1952,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="4">
-        <v>0.37302099999999999</v>
+        <v>0.394352562480285</v>
       </c>
       <c r="D64" s="4">
-        <v>0.36887199999999998</v>
+        <v>0.41656111589676997</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>136</v>
@@ -1969,10 +1969,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="4">
-        <v>0.38189699999999999</v>
+        <v>0.37484342477056898</v>
       </c>
       <c r="D65" s="4">
-        <v>0.37324000000000002</v>
+        <v>0.40047037012354603</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>137</v>
@@ -1986,10 +1986,10 @@
         <v>146</v>
       </c>
       <c r="C66" s="4">
-        <v>0.42920799999999998</v>
+        <v>0.41821841524664399</v>
       </c>
       <c r="D66" s="4">
-        <v>0.40611599999999998</v>
+        <v>0.43382776723560701</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>138</v>
@@ -2003,10 +2003,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="4">
-        <v>0.395401</v>
+        <v>0.41309627088468298</v>
       </c>
       <c r="D67" s="4">
-        <v>0.39732200000000001</v>
+        <v>0.40492934828665</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>139</v>
@@ -2020,10 +2020,10 @@
         <v>65</v>
       </c>
       <c r="C68" s="4">
-        <v>0.394067</v>
+        <v>0.40733690184691301</v>
       </c>
       <c r="D68" s="4">
-        <v>0.39729999999999999</v>
+        <v>0.41451878831450101</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>140</v>
@@ -2037,10 +2037,10 @@
         <v>66</v>
       </c>
       <c r="C69" s="4">
-        <v>0.391818</v>
+        <v>0.42211850891601199</v>
       </c>
       <c r="D69" s="4">
-        <v>0.37372</v>
+        <v>0.40320317496146901</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>141</v>
@@ -2054,10 +2054,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="4">
-        <v>0.39459499999999997</v>
+        <v>0.40992706898315001</v>
       </c>
       <c r="D70" s="4">
-        <v>0.39730900000000002</v>
+        <v>0.40744509103809201</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>142</v>
@@ -2071,10 +2071,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="4">
-        <v>0.38716299999999998</v>
+        <v>0.40668102330220102</v>
       </c>
       <c r="D71" s="4">
-        <v>0.38594699999999998</v>
+        <v>0.40671629802458198</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>143</v>
@@ -2088,10 +2088,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="4">
-        <v>0.394067</v>
+        <v>0.392590703456834</v>
       </c>
       <c r="D72" s="4">
-        <v>0.39729999999999999</v>
+        <v>0.38736021478219201</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>144</v>
